--- a/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB611B9C-05A5-EA4D-BA75-FD3E7E243620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7F6BEA-08A4-B344-B692-C41276A9FBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -72,27 +72,6 @@
     <t>Student 3:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">F02. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>cautarea filmelor care au un anumit regizor (sau parti din numele regizorului).</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">F02. Covered source code </t>
   </si>
   <si>
@@ -153,13 +132,7 @@
     <t>F02_P01</t>
   </si>
   <si>
-    <t>1 - 2(F) - …</t>
-  </si>
-  <si>
     <t>F02_P02</t>
-  </si>
-  <si>
-    <t>1 - 2(T) - …</t>
   </si>
   <si>
     <t>F02_P03</t>
@@ -501,24 +474,45 @@
   <si>
     <t>nu e nevoie</t>
   </si>
+  <si>
+    <t>1 - 2(T) - 3</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 4(T) - 5(T) - 6 - 4(F) - 3</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 4(T) - 5(T) - 6 - 4(T) - 5(F) - 4(F) - 3</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 4(T) - 5(T) - 6 - 4(T) - 5(T) - 6 - 4(F) - 3</t>
+  </si>
+  <si>
+    <t>F02_P04</t>
+  </si>
+  <si>
+    <t>F02_P05</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 4(T) - 5(F) - 4(F) - 3</t>
+  </si>
+  <si>
+    <t>F02_P06</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 4(T) - 5(F) - 6 - 4(T) - 5(F) - 6 - 4(F) - 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1185,84 +1179,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1274,15 +1268,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1291,197 +1285,203 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1988,15 +1988,15 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="107" t="s">
-        <v>87</v>
+      <c r="B11" s="106" t="s">
+        <v>84</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2030,13 +2030,14 @@
   <dimension ref="B1:T24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.2">
@@ -2051,22 +2052,22 @@
       <c r="I1" s="42"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
+      <c r="B3" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -2074,7 +2075,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="I6" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
@@ -2083,7 +2084,7 @@
       <c r="N6" s="41"/>
       <c r="O6" s="41"/>
       <c r="Q6" s="40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
@@ -2091,18 +2092,18 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="I8" s="12"/>
       <c r="Q8" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R8" s="45"/>
       <c r="S8" s="45"/>
@@ -2112,10 +2113,10 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
@@ -2123,7 +2124,7 @@
       <c r="G9" s="37"/>
       <c r="I9" s="38"/>
       <c r="Q9" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
@@ -2133,29 +2134,29 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="Q10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
-      <c r="Q10" s="45" t="s">
+      <c r="R10" s="45" t="s">
         <v>24</v>
-      </c>
-      <c r="R10" s="45" t="s">
-        <v>25</v>
       </c>
       <c r="S10" s="45"/>
       <c r="T10" s="35">
@@ -2164,62 +2165,62 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
       <c r="Q13" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R13" s="41"/>
       <c r="S13" s="41"/>
@@ -2227,174 +2228,176 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
       <c r="Q15" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="58" t="s">
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
+      <c r="Q16" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
-      <c r="Q16" s="36" t="s">
-        <v>32</v>
-      </c>
       <c r="R16" s="43" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="S16" s="43"/>
       <c r="T16" s="43"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
       <c r="Q17" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
+        <v>32</v>
+      </c>
+      <c r="R17" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="S17" s="110"/>
+      <c r="T17" s="111"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
       <c r="Q18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
+        <v>33</v>
+      </c>
+      <c r="R18" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="S18" s="110"/>
+      <c r="T18" s="111"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
       <c r="Q19" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
+        <v>92</v>
+      </c>
+      <c r="R19" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" s="110"/>
+      <c r="T19" s="111"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
       <c r="Q20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
+        <v>93</v>
+      </c>
+      <c r="R20" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" s="110"/>
+      <c r="T20" s="111"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
       <c r="Q21" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="R21" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
+        <v>95</v>
+      </c>
+      <c r="R21" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="S21" s="110"/>
+      <c r="T21" s="111"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="54"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="53"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R20:T20"/>
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I10:O24"/>
@@ -2406,9 +2409,7 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R18:T18"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="Q9:S9"/>
     <mergeCell ref="R16:T16"/>
@@ -2431,7 +2432,7 @@
   <dimension ref="B1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2467,221 +2468,221 @@
       <c r="G1" s="42"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B3" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
     </row>
     <row r="6" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+    </row>
+    <row r="7" spans="2:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="F7" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-    </row>
-    <row r="7" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="62" t="s">
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+    </row>
+    <row r="8" spans="2:28" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="64"/>
+      <c r="C8" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="63" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="64" t="s">
+      <c r="I8" s="60"/>
+      <c r="J8" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="65"/>
-      <c r="C8" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="61" t="s">
+      <c r="K8" s="60"/>
+      <c r="L8" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61" t="s">
+      <c r="O8" s="60"/>
+      <c r="P8" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61" t="s">
+      <c r="V8" s="63">
+        <v>0</v>
+      </c>
+      <c r="W8" s="63">
+        <v>1</v>
+      </c>
+      <c r="X8" s="63">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61" t="s">
+      <c r="Z8" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="63" t="s">
+      <c r="AA8" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="64">
-        <v>0</v>
-      </c>
-      <c r="W8" s="64">
-        <v>1</v>
-      </c>
-      <c r="X8" s="64">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="64" t="s">
+      <c r="AB8" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="Z8" s="64" t="s">
+    </row>
+    <row r="9" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="64"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AA8" s="64" t="s">
+      <c r="G9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AB8" s="64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="65"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="H9" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
+        <v>52</v>
+      </c>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
     </row>
     <row r="10" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -2709,13 +2710,13 @@
     </row>
     <row r="11" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
@@ -2744,7 +2745,7 @@
     </row>
     <row r="12" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
@@ -2775,7 +2776,7 @@
     </row>
     <row r="13" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
@@ -2806,7 +2807,7 @@
     </row>
     <row r="14" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -2837,7 +2838,7 @@
     </row>
     <row r="15" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -2943,110 +2944,110 @@
       <c r="G1" s="42"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="93" t="s">
+      <c r="E4" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="L4" s="95"/>
+    </row>
+    <row r="5" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="93"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="97"/>
+      <c r="K5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="L5" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="96"/>
-    </row>
-    <row r="5" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="94"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="98"/>
-      <c r="K5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="23">
         <v>9</v>
       </c>
-      <c r="C6" s="99" t="s">
-        <v>67</v>
+      <c r="C6" s="98" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="106"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="105"/>
       <c r="K6" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="23">
         <v>10</v>
       </c>
-      <c r="C7" s="99"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" s="23">
         <v>5</v>
@@ -3055,113 +3056,113 @@
         <v>6</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="96"/>
+        <v>18</v>
+      </c>
+      <c r="I7" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="95"/>
       <c r="K7" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="23">
         <v>11</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="96"/>
+        <v>18</v>
+      </c>
+      <c r="I8" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="95"/>
       <c r="K8" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="23">
         <v>12</v>
       </c>
-      <c r="C9" s="99"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="96"/>
+        <v>18</v>
+      </c>
+      <c r="I9" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="95"/>
       <c r="K9" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="100"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="98"/>
+        <v>18</v>
+      </c>
+      <c r="I10" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="97"/>
       <c r="K10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -3179,88 +3180,88 @@
     </row>
     <row r="12" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="2:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="76"/>
+      <c r="H13" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="84" t="s">
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="76" t="s">
+      <c r="N13" s="90"/>
+    </row>
+    <row r="14" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="84" t="s">
+      <c r="C14" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="90" t="s">
+      <c r="D14" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="91"/>
-    </row>
-    <row r="14" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="68" t="s">
+      <c r="E14" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="F14" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="G14" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="H14" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="I14" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="L14" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="M14" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="82" t="s">
+      <c r="N14" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="N14" s="79" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="69"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="74"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="73"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="28">
@@ -3272,17 +3273,17 @@
       <c r="D16" s="26">
         <v>0</v>
       </c>
-      <c r="E16" s="109">
+      <c r="E16" s="108">
         <v>1</v>
       </c>
       <c r="F16" s="27">
         <v>0</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I16" s="28">
         <f>SUM(J16:K16)</f>
@@ -3296,7 +3297,7 @@
       </c>
       <c r="L16" s="30"/>
       <c r="M16" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N16" s="31">
         <f>C16</f>

--- a/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7F6BEA-08A4-B344-B692-C41276A9FBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0FE9EF-728E-4C71-A2D2-49EDA7DF94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{EE03D056-1616-48C5-B976-81231005C0F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ma bate excel</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -162,21 +196,6 @@
     <t>Loop (lc)</t>
   </si>
   <si>
-    <t>F02_Cond01 &gt; 100</t>
-  </si>
-  <si>
-    <t>F02_Cond02 &lt; 20</t>
-  </si>
-  <si>
-    <t>F02_Cond03 == i</t>
-  </si>
-  <si>
-    <t>F02_Condnn &lt; n</t>
-  </si>
-  <si>
-    <t>F02_Pnn</t>
-  </si>
-  <si>
     <t>n-1</t>
   </si>
   <si>
@@ -196,12 +215,6 @@
   </si>
   <si>
     <t>F02_TC01</t>
-  </si>
-  <si>
-    <t>1, 2,4, 6, 7</t>
-  </si>
-  <si>
-    <t>F01_TC02</t>
   </si>
   <si>
     <t>WBT Implemented TCs</t>
@@ -501,12 +514,90 @@
   <si>
     <t>1 - 2(F) - 4(T) - 5(F) - 6 - 4(T) - 5(F) - 6 - 4(F) - 3</t>
   </si>
+  <si>
+    <t>Ticu Cristian</t>
+  </si>
+  <si>
+    <t>Vasilief Andrei</t>
+  </si>
+  <si>
+    <t>F02_TC03</t>
+  </si>
+  <si>
+    <t>F02_TC04</t>
+  </si>
+  <si>
+    <t>F02_TC05</t>
+  </si>
+  <si>
+    <t>F02_TC06</t>
+  </si>
+  <si>
+    <t>F02_Cond01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F02_Cond02 </t>
+  </si>
+  <si>
+    <t>F02_Cond03</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>1 - 2 - 4 - 5 - 6 - 4 - 3</t>
+  </si>
+  <si>
+    <t>1 - 2 - 4 - 5 - 4 - 3</t>
+  </si>
+  <si>
+    <t>1 - 2 - 4 - 5 - 6 - 4 - 5 - 4 - 3</t>
+  </si>
+  <si>
+    <t>1 - 2 - 4 - 5 - 6 - 4 - 5 - 6 - 4 - 3</t>
+  </si>
+  <si>
+    <t>1 , 2 , 3</t>
+  </si>
+  <si>
+    <t>Payments in repository (table number, value, payment type)</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>[{1, 50.0, Card}]</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>[{1, 100000.0, Cash}]</t>
+  </si>
+  <si>
+    <t>[{1, 40.0, Cash}, {1, 50.0, Cash}]</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>[{1, 1000000.0, Cash}, {1, 1000000.0, Cash}]</t>
+  </si>
+  <si>
+    <t>[{1, 1000.0, Cash}, {1, 50.0, Card}, {1, 10.0, Card}, {1, 1000.0, Cash}]</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +732,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -716,7 +827,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1150,10 +1261,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color indexed="64"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1163,46 +1274,75 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1229,258 +1369,309 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1897,120 +2088,128 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="15" max="15" width="19.5" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="12"/>
-      <c r="D1" s="40" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B1" s="5"/>
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28" t="s">
+      <c r="N6" s="16"/>
+      <c r="O6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P6" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O7" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O8" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="106" t="s">
-        <v>84</v>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2029,129 +2228,129 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="G13" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16:T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.5" customWidth="1"/>
-    <col min="20" max="20" width="26.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="26.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="12"/>
-      <c r="D1" s="40" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B1" s="5"/>
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="107" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="40" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="I6" s="40" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="I6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="Q6" s="40" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="Q6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="33" t="s">
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="I8" s="12"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="I8" s="5"/>
       <c r="Q8" s="45" t="s">
         <v>17</v>
       </c>
       <c r="R8" s="45"/>
       <c r="S8" s="45"/>
-      <c r="T8" s="35">
+      <c r="T8" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="36" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="I9" s="38"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="I9" s="23"/>
       <c r="Q9" s="45" t="s">
         <v>20</v>
       </c>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
-      <c r="T9" s="35">
+      <c r="T9" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="36" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="I10" s="48" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="I10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="38"/>
       <c r="Q10" s="45" t="s">
         <v>23</v>
       </c>
@@ -2159,240 +2358,248 @@
         <v>24</v>
       </c>
       <c r="S10" s="45"/>
-      <c r="T10" s="35">
+      <c r="T10" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="36" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="41"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="36" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="41"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
-      <c r="Q13" s="40" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="41"/>
+      <c r="Q13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="36" t="s">
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
-      <c r="Q15" s="33" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="41"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="41"/>
+      <c r="Q15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="57" t="s">
+      <c r="R15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
-      <c r="Q16" s="36" t="s">
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="41"/>
+      <c r="Q16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="43" t="s">
+      <c r="R16" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="41"/>
+      <c r="Q17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="S17" s="30"/>
+      <c r="T17" s="31"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="41"/>
+      <c r="Q18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" s="30"/>
+      <c r="T18" s="31"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="41"/>
+      <c r="Q19" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="S19" s="30"/>
+      <c r="T19" s="31"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="41"/>
+      <c r="Q20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="S20" s="30"/>
+      <c r="T20" s="31"/>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="41"/>
+      <c r="Q21" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
-      <c r="Q17" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="109" t="s">
+      <c r="R21" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="S17" s="110"/>
-      <c r="T17" s="111"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
-      <c r="Q18" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="S18" s="110"/>
-      <c r="T18" s="111"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
-      <c r="Q19" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="R19" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="S19" s="110"/>
-      <c r="T19" s="111"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
-      <c r="Q20" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="R20" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="S20" s="110"/>
-      <c r="T20" s="111"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
-      <c r="Q21" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="R21" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="S21" s="110"/>
-      <c r="T21" s="111"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="53"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="41"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="41"/>
+    </row>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="R21:T21"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="D1:I1"/>
@@ -2409,14 +2616,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2425,453 +2624,550 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AB16"/>
+  <dimension ref="B1:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" customWidth="1"/>
-    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="11" max="11" width="6.1796875" customWidth="1"/>
+    <col min="12" max="12" width="6.453125" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" customWidth="1"/>
-    <col min="16" max="17" width="8.83203125" customWidth="1"/>
-    <col min="21" max="21" width="9.1640625" customWidth="1"/>
-    <col min="22" max="24" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" customWidth="1"/>
+    <col min="16" max="17" width="8.81640625" customWidth="1"/>
+    <col min="21" max="21" width="9.1796875" customWidth="1"/>
+    <col min="22" max="24" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B1" s="12"/>
-      <c r="D1" s="40" t="s">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B1" s="5"/>
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B3" s="107" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+    </row>
+    <row r="7" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+    </row>
+    <row r="8" spans="2:28" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="48"/>
+      <c r="C8" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-    </row>
-    <row r="7" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="64"/>
-      <c r="C8" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60" t="s">
+      <c r="U8" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" s="51">
+        <v>0</v>
+      </c>
+      <c r="W8" s="51">
+        <v>1</v>
+      </c>
+      <c r="X8" s="51">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60" t="s">
+      <c r="Z8" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60" t="s">
+      <c r="AA8" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60" t="s">
+      <c r="AB8" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="60"/>
-      <c r="P8" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="U8" s="62" t="s">
+    </row>
+    <row r="9" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="48"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V8" s="63">
+      <c r="G9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+    </row>
+    <row r="10" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+    </row>
+    <row r="11" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="2:28" ht="31" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="13">
         <v>0</v>
       </c>
-      <c r="W8" s="63">
-        <v>1</v>
-      </c>
-      <c r="X8" s="63">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z8" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA8" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB8" s="63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="64"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-    </row>
-    <row r="10" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-    </row>
-    <row r="11" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-    </row>
-    <row r="12" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-    </row>
-    <row r="13" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-    </row>
-    <row r="14" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-    </row>
-    <row r="15" spans="2:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-    </row>
-    <row r="16" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B16" s="22"/>
-    </row>
+      <c r="E12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="2:28" ht="31" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+    </row>
+    <row r="14" spans="2:28" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="U14" s="11"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+    </row>
+    <row r="15" spans="2:28" ht="62" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+    </row>
+    <row r="16" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -2888,23 +3184,10 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2915,419 +3198,371 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="12"/>
-      <c r="D1" s="40" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B1" s="5"/>
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="91" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="63"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="61"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="92" t="s">
+    </row>
+    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="101">
+        <v>1</v>
+      </c>
+      <c r="C6" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="102" t="s">
+      <c r="D6" s="98">
+        <v>1</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="101" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="101">
+        <v>2</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="98">
+        <v>2</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="101">
+        <v>3</v>
+      </c>
+      <c r="C8" s="108"/>
+      <c r="D8" s="100">
+        <v>3</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="101" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="101">
+        <v>4</v>
+      </c>
+      <c r="C9" s="108"/>
+      <c r="D9" s="100">
+        <v>4</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="103">
+        <v>5</v>
+      </c>
+      <c r="C10" s="108"/>
+      <c r="D10" s="99">
+        <v>5</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="101">
+        <v>6</v>
+      </c>
+      <c r="C11" s="109"/>
+      <c r="D11" s="99">
+        <v>6</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="94" t="s">
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="95"/>
-    </row>
-    <row r="5" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="2" t="s">
+      <c r="G13" s="71"/>
+      <c r="H13" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="85" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23">
-        <v>9</v>
-      </c>
-      <c r="C6" s="98" t="s">
+      <c r="N13" s="86"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="105"/>
-      <c r="K6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="23">
-        <v>10</v>
-      </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="4" t="s">
+      <c r="C14" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="23">
-        <v>5</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="D14" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="87"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="73"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="118">
         <v>6</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="95"/>
-      <c r="K7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="23">
-        <v>11</v>
-      </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="95"/>
-      <c r="K8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="23">
-        <v>12</v>
-      </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>13</v>
-      </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="97"/>
-      <c r="K10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" s="90"/>
-    </row>
-    <row r="14" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="73" t="s">
+      <c r="C16" s="116">
+        <v>6</v>
+      </c>
+      <c r="D16" s="116">
+        <v>0</v>
+      </c>
+      <c r="E16" s="122">
+        <v>1</v>
+      </c>
+      <c r="F16" s="117">
+        <v>0</v>
+      </c>
+      <c r="G16" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" s="78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="68"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="73"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="28">
+      <c r="I16" s="118">
+        <v>0</v>
+      </c>
+      <c r="J16" s="116">
+        <v>0</v>
+      </c>
+      <c r="K16" s="119">
+        <v>0</v>
+      </c>
+      <c r="L16" s="120"/>
+      <c r="M16" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="121">
         <v>6</v>
       </c>
-      <c r="C16" s="26">
-        <v>6</v>
-      </c>
-      <c r="D16" s="26">
-        <v>0</v>
-      </c>
-      <c r="E16" s="108">
-        <v>1</v>
-      </c>
-      <c r="F16" s="27">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="28">
-        <f>SUM(J16:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="26">
-        <v>0</v>
-      </c>
-      <c r="K16" s="29">
-        <v>0</v>
-      </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N16" s="31">
-        <f>C16</f>
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="D1:G1"/>
+  <mergeCells count="32">
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:C10"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M14:M15"/>
@@ -3337,6 +3572,15 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3344,6 +3588,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e00392fbb7f49de63e89755c965b762">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37d4e1d93698397f16b7bbb6f83014a7" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3511,22 +3770,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845501DA-8B32-4FE5-8083-FBCE9B17F25B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3542,21 +3803,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0FE9EF-728E-4C71-A2D2-49EDA7DF94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36D8234-5A85-4EA5-B5C5-7D3D4072643D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="118">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -488,33 +488,15 @@
     <t>nu e nevoie</t>
   </si>
   <si>
-    <t>1 - 2(T) - 3</t>
-  </si>
-  <si>
-    <t>1 - 2(F) - 4(T) - 5(T) - 6 - 4(F) - 3</t>
-  </si>
-  <si>
-    <t>1 - 2(F) - 4(T) - 5(T) - 6 - 4(T) - 5(F) - 4(F) - 3</t>
-  </si>
-  <si>
-    <t>1 - 2(F) - 4(T) - 5(T) - 6 - 4(T) - 5(T) - 6 - 4(F) - 3</t>
-  </si>
-  <si>
     <t>F02_P04</t>
   </si>
   <si>
     <t>F02_P05</t>
   </si>
   <si>
-    <t>1 - 2(F) - 4(T) - 5(F) - 4(F) - 3</t>
-  </si>
-  <si>
     <t>F02_P06</t>
   </si>
   <si>
-    <t>1 - 2(F) - 4(T) - 5(F) - 6 - 4(T) - 5(F) - 6 - 4(F) - 3</t>
-  </si>
-  <si>
     <t>Ticu Cristian</t>
   </si>
   <si>
@@ -536,30 +518,12 @@
     <t>F02_Cond01</t>
   </si>
   <si>
-    <t xml:space="preserve">F02_Cond02 </t>
-  </si>
-  <si>
-    <t>F02_Cond03</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>1 - 2 - 4 - 5 - 6 - 4 - 3</t>
-  </si>
-  <si>
-    <t>1 - 2 - 4 - 5 - 4 - 3</t>
-  </si>
-  <si>
-    <t>1 - 2 - 4 - 5 - 6 - 4 - 5 - 4 - 3</t>
-  </si>
-  <si>
     <t>1 - 2 - 4 - 5 - 6 - 4 - 5 - 6 - 4 - 3</t>
   </si>
   <si>
-    <t>1 , 2 , 3</t>
-  </si>
-  <si>
     <t>Payments in repository (table number, value, payment type)</t>
   </si>
   <si>
@@ -591,13 +555,55 @@
   </si>
   <si>
     <t>60.0</t>
+  </si>
+  <si>
+    <t>F02_Cond04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F02_Cond03 </t>
+  </si>
+  <si>
+    <t>F02_Cond02</t>
+  </si>
+  <si>
+    <t>1 , 2 , 7 , 3</t>
+  </si>
+  <si>
+    <t>1 - 2 - 7 - 4 - 5 - 6 - 4 - 3</t>
+  </si>
+  <si>
+    <t>1 - 2- 7 - 4 - 5 - 4 - 3</t>
+  </si>
+  <si>
+    <t>1 - 2 - 7 - 4 - 5 - 6 - 4 - 5 - 4 - 3</t>
+  </si>
+  <si>
+    <t>1 - 2 - 7 - 4 - 5 - 6 - 4 - 5 - 6 - 4 - 3</t>
+  </si>
+  <si>
+    <t>1 - 2(T) - 7(T) - 3</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 7(F) - 4(T) - 5(T) - 6 - 4(F) - 3</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 7(F) - 4(T) - 5(F) - 4(F) - 3</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 7(F) - 4(T) - 5(T) - 6 - 4(T) - 5(F) - 4(F) - 3</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 7(F) - 4(T) - 5(T) - 6 - 4(T) - 5(T) - 6 - 4(F) - 3</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 7(F) - 4(T) - 5(F) - 6 - 4(T) - 5(F) - 6 - 4(F) - 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +758,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1336,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1663,6 +1675,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1694,23 +1712,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444502</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>493793</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>88255</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>193715</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>89021</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F65DD9-4C94-61A9-932E-ADD4E3F80010}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCC1AF6-C12E-DC42-8D91-FFD3C25992B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,8 +1750,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="678051" y="1356102"/>
-          <a:ext cx="4648200" cy="2413000"/>
+          <a:off x="4844145" y="1188356"/>
+          <a:ext cx="4684070" cy="5613522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1744,23 +1762,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>667006</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>235858</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>187738</xdr:rowOff>
+      <xdr:rowOff>118884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>657768</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>22087</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A19CFCD-CFBC-BBA2-522A-B54FBD9355A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{797BD1E1-E8D0-6FCC-C32E-3518A2440939}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,8 +1800,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5470919" y="1314173"/>
-          <a:ext cx="5379979" cy="5278784"/>
+          <a:off x="235858" y="1207455"/>
+          <a:ext cx="4118428" cy="2490212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2087,7 +2105,7 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -2151,7 +2169,7 @@
         <v>9</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P7" s="16">
         <v>237</v>
@@ -2166,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P8" s="16">
         <v>237</v>
@@ -2228,8 +2246,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16:T16"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2307,7 +2325,7 @@
       <c r="R8" s="45"/>
       <c r="S8" s="45"/>
       <c r="T8" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.35">
@@ -2328,7 +2346,7 @@
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
       <c r="T9" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
@@ -2359,7 +2377,7 @@
       </c>
       <c r="S10" s="45"/>
       <c r="T10" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
@@ -2473,7 +2491,7 @@
         <v>31</v>
       </c>
       <c r="R16" s="47" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="S16" s="47"/>
       <c r="T16" s="47"/>
@@ -2490,7 +2508,7 @@
         <v>32</v>
       </c>
       <c r="R17" s="29" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
@@ -2507,7 +2525,7 @@
         <v>33</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
@@ -2521,10 +2539,10 @@
       <c r="N19" s="40"/>
       <c r="O19" s="41"/>
       <c r="Q19" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R19" s="29" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="S19" s="30"/>
       <c r="T19" s="31"/>
@@ -2538,10 +2556,10 @@
       <c r="N20" s="40"/>
       <c r="O20" s="41"/>
       <c r="Q20" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="S20" s="30"/>
       <c r="T20" s="31"/>
@@ -2555,10 +2573,10 @@
       <c r="N21" s="40"/>
       <c r="O21" s="41"/>
       <c r="Q21" s="21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R21" s="29" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="S21" s="30"/>
       <c r="T21" s="31"/>
@@ -2630,8 +2648,8 @@
   </sheetPr>
   <dimension ref="B1:AB18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E22:E23"/>
+    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2645,8 +2663,8 @@
     <col min="9" max="9" width="9.36328125" customWidth="1"/>
     <col min="10" max="10" width="14.453125" customWidth="1"/>
     <col min="11" max="11" width="6.1796875" customWidth="1"/>
-    <col min="12" max="12" width="6.453125" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="12" max="12" width="7.7265625" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" customWidth="1"/>
     <col min="15" max="15" width="11.81640625" customWidth="1"/>
     <col min="16" max="17" width="8.81640625" customWidth="1"/>
     <col min="21" max="21" width="9.1796875" customWidth="1"/>
@@ -2762,18 +2780,20 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="55" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G8" s="55"/>
       <c r="H8" s="55" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I8" s="55"/>
       <c r="J8" s="55" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
+      <c r="L8" s="55" t="s">
+        <v>104</v>
+      </c>
       <c r="M8" s="55"/>
       <c r="N8" s="55"/>
       <c r="O8" s="55"/>
@@ -2787,13 +2807,13 @@
         <v>33</v>
       </c>
       <c r="S8" s="52" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T8" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U8" s="52" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="V8" s="51">
         <v>0</v>
@@ -2828,22 +2848,26 @@
       <c r="G9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="L9" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
       <c r="R9" s="52"/>
@@ -2863,28 +2887,30 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="91" t="s">
-        <v>104</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="H10" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
       <c r="P10" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
@@ -2892,7 +2918,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -2901,40 +2927,42 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
     </row>
-    <row r="11" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:28" ht="31" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -2942,7 +2970,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
@@ -2952,46 +2980,48 @@
     </row>
     <row r="12" spans="2:28" ht="31" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="123" t="s">
-        <v>110</v>
+        <v>86</v>
+      </c>
+      <c r="C12" s="125" t="s">
+        <v>98</v>
       </c>
       <c r="D12" s="13">
         <v>0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
@@ -3001,49 +3031,51 @@
     </row>
     <row r="13" spans="2:28" ht="31" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
@@ -3052,47 +3084,49 @@
     </row>
     <row r="14" spans="2:28" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="U14" s="11"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
@@ -3101,47 +3135,49 @@
     </row>
     <row r="15" spans="2:28" ht="62" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
@@ -3185,6 +3221,7 @@
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="V7:AB7"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3198,7 +3235,7 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="125" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -3269,7 +3306,7 @@
       <c r="C5" s="106"/>
       <c r="D5" s="69"/>
       <c r="E5" s="110" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
@@ -3294,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F6" s="93"/>
       <c r="G6" s="93"/>
@@ -3302,10 +3339,10 @@
       <c r="I6" s="93"/>
       <c r="J6" s="94"/>
       <c r="K6" s="102" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="L6" s="101" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
@@ -3317,7 +3354,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F7" s="66"/>
       <c r="G7" s="66"/>
@@ -3325,10 +3362,10 @@
       <c r="I7" s="66"/>
       <c r="J7" s="63"/>
       <c r="K7" s="101" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="L7" s="101" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
@@ -3340,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
@@ -3348,10 +3385,10 @@
       <c r="I8" s="66"/>
       <c r="J8" s="63"/>
       <c r="K8" s="101" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="L8" s="101" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
@@ -3363,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
@@ -3371,10 +3408,10 @@
       <c r="I9" s="66"/>
       <c r="J9" s="63"/>
       <c r="K9" s="101" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="L9" s="101" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3386,7 +3423,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F10" s="95"/>
       <c r="G10" s="95"/>
@@ -3394,10 +3431,10 @@
       <c r="I10" s="95"/>
       <c r="J10" s="65"/>
       <c r="K10" s="97" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="L10" s="97" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3409,7 +3446,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F11" s="95"/>
       <c r="G11" s="95"/>
@@ -3417,10 +3454,10 @@
       <c r="I11" s="95"/>
       <c r="J11" s="65"/>
       <c r="K11" s="97" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="L11" s="97" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3509,19 +3546,19 @@
       <c r="N15" s="73"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="118">
+      <c r="B16" s="120">
         <v>6</v>
       </c>
-      <c r="C16" s="116">
+      <c r="C16" s="118">
         <v>6</v>
       </c>
-      <c r="D16" s="116">
+      <c r="D16" s="118">
         <v>0</v>
       </c>
-      <c r="E16" s="122">
+      <c r="E16" s="124">
         <v>1</v>
       </c>
-      <c r="F16" s="117">
+      <c r="F16" s="119">
         <v>0</v>
       </c>
       <c r="G16" s="115" t="s">
@@ -3530,20 +3567,20 @@
       <c r="H16" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="118">
+      <c r="I16" s="120">
         <v>0</v>
       </c>
-      <c r="J16" s="116">
+      <c r="J16" s="118">
         <v>0</v>
       </c>
-      <c r="K16" s="119">
+      <c r="K16" s="121">
         <v>0</v>
       </c>
-      <c r="L16" s="120"/>
+      <c r="L16" s="122"/>
       <c r="M16" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="121">
+      <c r="N16" s="123">
         <v>6</v>
       </c>
     </row>

--- a/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36D8234-5A85-4EA5-B5C5-7D3D4072643D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AFFC04-36BD-4070-9282-09793237F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{EE03D056-1616-48C5-B976-81231005C0F6}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{EE03D056-1616-48C5-B976-81231005C0F6}">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -581,9 +581,6 @@
     <t>1 - 2 - 7 - 4 - 5 - 6 - 4 - 5 - 6 - 4 - 3</t>
   </si>
   <si>
-    <t>1 - 2(T) - 7(T) - 3</t>
-  </si>
-  <si>
     <t>1 - 2(F) - 7(F) - 4(T) - 5(T) - 6 - 4(F) - 3</t>
   </si>
   <si>
@@ -597,6 +594,30 @@
   </si>
   <si>
     <t>1 - 2(F) - 7(F) - 4(T) - 5(F) - 6 - 4(T) - 5(F) - 6 - 4(F) - 3</t>
+  </si>
+  <si>
+    <t>F02_TC07</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>1 - 2 -7 - 3</t>
+  </si>
+  <si>
+    <t>1 - 2(T)  - 3</t>
+  </si>
+  <si>
+    <t>F02_P00</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 7(T) - 3</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1687,9 +1708,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2105,7 +2153,7 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -2246,8 +2294,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2487,14 +2535,14 @@
       <c r="M16" s="40"/>
       <c r="N16" s="40"/>
       <c r="O16" s="41"/>
-      <c r="Q16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
+      <c r="Q16" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="R16" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" s="133"/>
+      <c r="T16" s="134"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.35">
       <c r="I17" s="39"/>
@@ -2505,13 +2553,13 @@
       <c r="N17" s="40"/>
       <c r="O17" s="41"/>
       <c r="Q17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="S17" s="30"/>
-      <c r="T17" s="31"/>
+        <v>31</v>
+      </c>
+      <c r="R17" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.35">
       <c r="I18" s="39"/>
@@ -2522,10 +2570,10 @@
       <c r="N18" s="40"/>
       <c r="O18" s="41"/>
       <c r="Q18" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
@@ -2539,10 +2587,10 @@
       <c r="N19" s="40"/>
       <c r="O19" s="41"/>
       <c r="Q19" s="21" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="R19" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S19" s="30"/>
       <c r="T19" s="31"/>
@@ -2556,10 +2604,10 @@
       <c r="N20" s="40"/>
       <c r="O20" s="41"/>
       <c r="Q20" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S20" s="30"/>
       <c r="T20" s="31"/>
@@ -2573,10 +2621,10 @@
       <c r="N21" s="40"/>
       <c r="O21" s="41"/>
       <c r="Q21" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R21" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S21" s="30"/>
       <c r="T21" s="31"/>
@@ -2589,6 +2637,14 @@
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
       <c r="O22" s="41"/>
+      <c r="Q22" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="S22" s="30"/>
+      <c r="T22" s="31"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.35">
       <c r="I23" s="39"/>
@@ -2609,20 +2665,21 @@
       <c r="O24" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="R19:T19"/>
+  <mergeCells count="25">
+    <mergeCell ref="R20:T20"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:T17"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R22:T22"/>
     <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R20:T20"/>
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="R17:T17"/>
     <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R19:T19"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I10:O24"/>
@@ -2646,10 +2703,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AB18"/>
+  <dimension ref="B1:AC19"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2675,7 +2732,7 @@
     <col min="28" max="28" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B1" s="5"/>
       <c r="D1" s="26" t="s">
         <v>0</v>
@@ -2684,7 +2741,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B3" s="32" t="s">
         <v>79</v>
       </c>
@@ -2693,10 +2750,10 @@
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="48" t="s">
         <v>34</v>
       </c>
@@ -2733,7 +2790,7 @@
       <c r="AA6" s="48"/>
       <c r="AB6" s="48"/>
     </row>
-    <row r="7" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="50"/>
@@ -2770,13 +2827,13 @@
       <c r="AA7" s="51"/>
       <c r="AB7" s="51"/>
     </row>
-    <row r="8" spans="2:28" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="48"/>
       <c r="C8" s="53" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="55" t="s">
@@ -2797,47 +2854,48 @@
       <c r="M8" s="55"/>
       <c r="N8" s="55"/>
       <c r="O8" s="55"/>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="116"/>
+      <c r="Q8" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="R8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="52" t="s">
+      <c r="S8" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="T8" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="T8" s="52" t="s">
+      <c r="U8" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="52" t="s">
+      <c r="V8" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="V8" s="51">
+      <c r="W8" s="51">
         <v>0</v>
       </c>
-      <c r="W8" s="51">
+      <c r="X8" s="51">
         <v>1</v>
       </c>
-      <c r="X8" s="51">
+      <c r="Y8" s="51">
         <v>2</v>
       </c>
-      <c r="Y8" s="51" t="s">
+      <c r="Z8" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="Z8" s="51" t="s">
+      <c r="AA8" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="51" t="s">
+      <c r="AB8" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AB8" s="51" t="s">
+      <c r="AC8" s="51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="48"/>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -2868,99 +2926,97 @@
       </c>
       <c r="N9" s="116"/>
       <c r="O9" s="116"/>
-      <c r="P9" s="52"/>
+      <c r="P9" s="116" t="s">
+        <v>121</v>
+      </c>
       <c r="Q9" s="52"/>
       <c r="R9" s="52"/>
       <c r="S9" s="52"/>
       <c r="T9" s="52"/>
       <c r="U9" s="52"/>
-      <c r="V9" s="51"/>
+      <c r="V9" s="52"/>
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
       <c r="Y9" s="51"/>
       <c r="Z9" s="51"/>
       <c r="AA9" s="51"/>
       <c r="AB9" s="51"/>
-    </row>
-    <row r="10" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
+      <c r="AC9" s="51"/>
+    </row>
+    <row r="10" spans="2:29" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="126">
+        <v>0</v>
+      </c>
+      <c r="E10" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="129"/>
+    </row>
+    <row r="11" spans="2:29" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="E11" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-    </row>
-    <row r="11" spans="2:28" ht="31" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="F11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="117"/>
       <c r="I11" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="117" t="s">
-        <v>91</v>
-      </c>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
       <c r="M11" s="117"/>
       <c r="N11" s="117"/>
       <c r="O11" s="117"/>
-      <c r="P11" s="11"/>
+      <c r="P11" s="117"/>
       <c r="Q11" s="11" t="s">
         <v>91</v>
       </c>
@@ -2968,7 +3024,7 @@
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="12"/>
+      <c r="V11" s="11"/>
       <c r="W11" s="12" t="s">
         <v>91</v>
       </c>
@@ -2977,19 +3033,20 @@
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
-    </row>
-    <row r="12" spans="2:28" ht="31" x14ac:dyDescent="0.35">
+      <c r="AC11" s="12"/>
+    </row>
+    <row r="12" spans="2:29" ht="31" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="125" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
@@ -3005,13 +3062,13 @@
       <c r="K12" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117" t="s">
-        <v>91</v>
-      </c>
+      <c r="L12" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="117"/>
       <c r="N12" s="117"/>
       <c r="O12" s="117"/>
-      <c r="P12" s="11"/>
+      <c r="P12" s="117"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11" t="s">
         <v>91</v>
@@ -3019,28 +3076,31 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="X12" s="12"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="AA12" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="AB12" s="12"/>
-    </row>
-    <row r="13" spans="2:28" ht="31" x14ac:dyDescent="0.35">
+      <c r="AC12" s="12"/>
+    </row>
+    <row r="13" spans="2:29" ht="31" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>100</v>
+        <v>86</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
@@ -3056,15 +3116,13 @@
       <c r="K13" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="117" t="s">
-        <v>91</v>
-      </c>
+      <c r="L13" s="117"/>
       <c r="M13" s="117" t="s">
         <v>91</v>
       </c>
       <c r="N13" s="117"/>
       <c r="O13" s="117"/>
-      <c r="P13" s="11"/>
+      <c r="P13" s="117"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11" t="s">
@@ -3072,28 +3130,31 @@
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="12"/>
+      <c r="V13" s="11"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12" t="s">
         <v>91</v>
       </c>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="AA13" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="AB13" s="12"/>
-    </row>
-    <row r="14" spans="2:28" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="AC13" s="12"/>
+    </row>
+    <row r="14" spans="2:29" ht="31" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
@@ -3112,10 +3173,12 @@
       <c r="L14" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="117"/>
+      <c r="M14" s="117" t="s">
+        <v>91</v>
+      </c>
       <c r="N14" s="117"/>
       <c r="O14" s="117"/>
-      <c r="P14" s="11"/>
+      <c r="P14" s="117"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -3123,28 +3186,31 @@
         <v>91</v>
       </c>
       <c r="U14" s="11"/>
-      <c r="V14" s="12"/>
+      <c r="V14" s="11"/>
       <c r="W14" s="12"/>
-      <c r="X14" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
+      <c r="AA14" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="AB14" s="12"/>
-    </row>
-    <row r="15" spans="2:28" ht="62" x14ac:dyDescent="0.35">
+      <c r="AC14" s="12"/>
+    </row>
+    <row r="15" spans="2:29" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -3160,13 +3226,13 @@
       <c r="K15" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117" t="s">
-        <v>91</v>
-      </c>
+      <c r="L15" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="117"/>
       <c r="N15" s="117"/>
       <c r="O15" s="117"/>
-      <c r="P15" s="11"/>
+      <c r="P15" s="117"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
@@ -3174,20 +3240,77 @@
       <c r="U15" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="V15" s="12"/>
+      <c r="V15" s="11"/>
       <c r="W15" s="12"/>
-      <c r="X15" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+      <c r="AA15" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="AB15" s="12"/>
-    </row>
-    <row r="16" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35"/>
+      <c r="AC15" s="12"/>
+    </row>
+    <row r="16" spans="2:29" ht="62" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="C8:C9"/>
@@ -3195,30 +3318,30 @@
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="P7:U7"/>
-    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="W8:W9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:AB6"/>
-    <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="V8:V9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="W8:W9"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="U8:U9"/>
     <mergeCell ref="V7:AB7"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -3235,7 +3358,7 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="125" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -3555,7 +3678,7 @@
       <c r="D16" s="118">
         <v>0</v>
       </c>
-      <c r="E16" s="124">
+      <c r="E16" s="125">
         <v>1</v>
       </c>
       <c r="F16" s="119">
